--- a/va_facility_data_2025-02-20/North Las Vegas VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''North%20Las%20Vegas%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/North Las Vegas VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''North%20Las%20Vegas%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R31d9c98caa4a41b788c648185fd9b5f5"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Ref711c4418c64adabcedafb937d57a44"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R31c660c08bea4d93b3380add05aee72d"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rb038462c943648ffa43efeb283004762"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R23184e6160974e349567ee878db05693"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R7e33ff58b7cc4367af2fd7a4dce6188a"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R3f9cf95332754a0c84b6431d1b0a8c93"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Ra187014ecea341379bef2254171985d4"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rdbc2954401df46d69e445f0b36762707"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R6801453c098b4c4da4b4b9df8223397d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R67a81edba5cd4a97ba7135c851276d6a"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R37a563dc5cf94dbf89518109889ad473"/>
   </x:sheets>
 </x:workbook>
 </file>
